--- a/va_facility_data_2025-02-20/Lubbock VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lubbock%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lubbock VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lubbock%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R24d1d3d5167e46cda1a2152d568bc0b3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re2b4eae10811465ca5fbb14025abc398"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3bbb614b4e5048ce895e95e8c2e6a881"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R29601e74862545019625330bb36f1d5d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5266eaf7fd284af3b856a040a3647059"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R37c2db3cfa8842539535cdb84fb60e48"/>
   </x:sheets>
 </x:workbook>
 </file>
